--- a/Data/SwissPeaks360_2020_DEM.xlsx
+++ b/Data/SwissPeaks360_2020_DEM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3056" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3331" uniqueCount="1208">
   <si>
     <t>Bib</t>
   </si>
@@ -2375,6 +2375,435 @@
   </si>
   <si>
     <t>HOKA ONE ONE Switzerland</t>
+  </si>
+  <si>
+    <t>2 days 14:45:34</t>
+  </si>
+  <si>
+    <t>2 days 14:45:35</t>
+  </si>
+  <si>
+    <t>2 days 22:32:18</t>
+  </si>
+  <si>
+    <t>3 days 05:08:16</t>
+  </si>
+  <si>
+    <t>3 days 08:19:35</t>
+  </si>
+  <si>
+    <t>3 days 08:53:25</t>
+  </si>
+  <si>
+    <t>3 days 10:57:54</t>
+  </si>
+  <si>
+    <t>3 days 11:17:54</t>
+  </si>
+  <si>
+    <t>3 days 11:17:45</t>
+  </si>
+  <si>
+    <t>3 days 14:30:03</t>
+  </si>
+  <si>
+    <t>3 days 15:25:32</t>
+  </si>
+  <si>
+    <t>3 days 16:54:21</t>
+  </si>
+  <si>
+    <t>3 days 16:53:59</t>
+  </si>
+  <si>
+    <t>3 days 17:52:44</t>
+  </si>
+  <si>
+    <t>3 days 18:23:23</t>
+  </si>
+  <si>
+    <t>3 days 18:51:24</t>
+  </si>
+  <si>
+    <t>3 days 19:19:09</t>
+  </si>
+  <si>
+    <t>3 days 19:26:32</t>
+  </si>
+  <si>
+    <t>3 days 20:17:40</t>
+  </si>
+  <si>
+    <t>3 days 20:57:40</t>
+  </si>
+  <si>
+    <t>3 days 22:10:44</t>
+  </si>
+  <si>
+    <t>3 days 22:21:32</t>
+  </si>
+  <si>
+    <t>3 days 22:33:34</t>
+  </si>
+  <si>
+    <t>3 days 22:52:46</t>
+  </si>
+  <si>
+    <t>3 days 23:52:32</t>
+  </si>
+  <si>
+    <t>3 days 23:58:23</t>
+  </si>
+  <si>
+    <t>4 days 01:01:22</t>
+  </si>
+  <si>
+    <t>4 days 01:52:33</t>
+  </si>
+  <si>
+    <t>4 days 02:43:43</t>
+  </si>
+  <si>
+    <t>4 days 02:43:51</t>
+  </si>
+  <si>
+    <t>4 days 03:11:01</t>
+  </si>
+  <si>
+    <t>4 days 04:28:37</t>
+  </si>
+  <si>
+    <t>4 days 04:34:06</t>
+  </si>
+  <si>
+    <t>4 days 04:42:04</t>
+  </si>
+  <si>
+    <t>4 days 05:28:52</t>
+  </si>
+  <si>
+    <t>4 days 06:32:34</t>
+  </si>
+  <si>
+    <t>4 days 06:33:04</t>
+  </si>
+  <si>
+    <t>4 days 06:33:12</t>
+  </si>
+  <si>
+    <t>4 days 07:03:23</t>
+  </si>
+  <si>
+    <t>4 days 07:21:33</t>
+  </si>
+  <si>
+    <t>4 days 07:47:36</t>
+  </si>
+  <si>
+    <t>4 days 08:10:57</t>
+  </si>
+  <si>
+    <t>4 days 08:27:52</t>
+  </si>
+  <si>
+    <t>4 days 08:43:28</t>
+  </si>
+  <si>
+    <t>4 days 09:13:23</t>
+  </si>
+  <si>
+    <t>4 days 09:15:36</t>
+  </si>
+  <si>
+    <t>4 days 09:33:56</t>
+  </si>
+  <si>
+    <t>4 days 09:40:56</t>
+  </si>
+  <si>
+    <t>4 days 09:54:39</t>
+  </si>
+  <si>
+    <t>4 days 10:12:29</t>
+  </si>
+  <si>
+    <t>4 days 10:29:27</t>
+  </si>
+  <si>
+    <t>4 days 10:34:30</t>
+  </si>
+  <si>
+    <t>4 days 10:47:03</t>
+  </si>
+  <si>
+    <t>4 days 10:57:00</t>
+  </si>
+  <si>
+    <t>4 days 11:14:21</t>
+  </si>
+  <si>
+    <t>4 days 11:26:08</t>
+  </si>
+  <si>
+    <t>4 days 11:40:07</t>
+  </si>
+  <si>
+    <t>4 days 11:41:12</t>
+  </si>
+  <si>
+    <t>4 days 11:48:46</t>
+  </si>
+  <si>
+    <t>4 days 11:58:26</t>
+  </si>
+  <si>
+    <t>4 days 11:59:14</t>
+  </si>
+  <si>
+    <t>4 days 12:21:16</t>
+  </si>
+  <si>
+    <t>4 days 12:21:36</t>
+  </si>
+  <si>
+    <t>4 days 12:28:54</t>
+  </si>
+  <si>
+    <t>4 days 12:41:35</t>
+  </si>
+  <si>
+    <t>4 days 13:05:59</t>
+  </si>
+  <si>
+    <t>4 days 13:20:38</t>
+  </si>
+  <si>
+    <t>4 days 13:53:32</t>
+  </si>
+  <si>
+    <t>4 days 14:02:04</t>
+  </si>
+  <si>
+    <t>4 days 14:42:18</t>
+  </si>
+  <si>
+    <t>4 days 14:55:46</t>
+  </si>
+  <si>
+    <t>4 days 14:59:55</t>
+  </si>
+  <si>
+    <t>4 days 15:21:16</t>
+  </si>
+  <si>
+    <t>4 days 15:21:13</t>
+  </si>
+  <si>
+    <t>4 days 16:12:50</t>
+  </si>
+  <si>
+    <t>4 days 16:18:41</t>
+  </si>
+  <si>
+    <t>4 days 16:35:51</t>
+  </si>
+  <si>
+    <t>4 days 16:48:20</t>
+  </si>
+  <si>
+    <t>4 days 16:56:38</t>
+  </si>
+  <si>
+    <t>4 days 17:11:45</t>
+  </si>
+  <si>
+    <t>4 days 17:38:20</t>
+  </si>
+  <si>
+    <t>4 days 17:47:46</t>
+  </si>
+  <si>
+    <t>4 days 17:49:42</t>
+  </si>
+  <si>
+    <t>4 days 17:49:49</t>
+  </si>
+  <si>
+    <t>4 days 18:10:46</t>
+  </si>
+  <si>
+    <t>4 days 18:11:24</t>
+  </si>
+  <si>
+    <t>4 days 18:33:05</t>
+  </si>
+  <si>
+    <t>4 days 19:01:50</t>
+  </si>
+  <si>
+    <t>4 days 19:19:06</t>
+  </si>
+  <si>
+    <t>4 days 19:30:47</t>
+  </si>
+  <si>
+    <t>4 days 20:20:23</t>
+  </si>
+  <si>
+    <t>4 days 20:34:23</t>
+  </si>
+  <si>
+    <t>4 days 21:31:05</t>
+  </si>
+  <si>
+    <t>4 days 22:00:09</t>
+  </si>
+  <si>
+    <t>4 days 22:36:29</t>
+  </si>
+  <si>
+    <t>4 days 22:35:51</t>
+  </si>
+  <si>
+    <t>4 days 22:35:54</t>
+  </si>
+  <si>
+    <t>4 days 22:36:05</t>
+  </si>
+  <si>
+    <t>4 days 22:36:17</t>
+  </si>
+  <si>
+    <t>4 days 22:35:53</t>
+  </si>
+  <si>
+    <t>4 days 22:52:45</t>
+  </si>
+  <si>
+    <t>4 days 23:11:17</t>
+  </si>
+  <si>
+    <t>4 days 23:11:19</t>
+  </si>
+  <si>
+    <t>4 days 23:20:52</t>
+  </si>
+  <si>
+    <t>5 days 00:05:40</t>
+  </si>
+  <si>
+    <t>5 days 00:29:31</t>
+  </si>
+  <si>
+    <t>5 days 00:29:19</t>
+  </si>
+  <si>
+    <t>5 days 01:39:26</t>
+  </si>
+  <si>
+    <t>5 days 02:06:38</t>
+  </si>
+  <si>
+    <t>5 days 02:29:08</t>
+  </si>
+  <si>
+    <t>5 days 04:47:46</t>
+  </si>
+  <si>
+    <t>5 days 05:23:48</t>
+  </si>
+  <si>
+    <t>5 days 07:14:05</t>
+  </si>
+  <si>
+    <t>5 days 07:14:08</t>
+  </si>
+  <si>
+    <t>5 days 07:39:16</t>
+  </si>
+  <si>
+    <t>5 days 07:49:02</t>
+  </si>
+  <si>
+    <t>5 days 08:03:35</t>
+  </si>
+  <si>
+    <t>5 days 08:34:52</t>
+  </si>
+  <si>
+    <t>5 days 08:39:28</t>
+  </si>
+  <si>
+    <t>5 days 08:39:49</t>
+  </si>
+  <si>
+    <t>5 days 08:46:50</t>
+  </si>
+  <si>
+    <t>5 days 08:58:19</t>
+  </si>
+  <si>
+    <t>5 days 08:58:58</t>
+  </si>
+  <si>
+    <t>5 days 09:16:50</t>
+  </si>
+  <si>
+    <t>5 days 09:29:35</t>
+  </si>
+  <si>
+    <t>5 days 09:42:05</t>
+  </si>
+  <si>
+    <t>5 days 09:53:02</t>
+  </si>
+  <si>
+    <t>5 days 11:49:07</t>
+  </si>
+  <si>
+    <t>5 days 12:03:41</t>
+  </si>
+  <si>
+    <t>NaT</t>
+  </si>
+  <si>
+    <t>3 days 13:10:45</t>
+  </si>
+  <si>
+    <t>3 days 14:15:28</t>
+  </si>
+  <si>
+    <t>3 days 17:05:29</t>
+  </si>
+  <si>
+    <t>3 days 20:57:41</t>
+  </si>
+  <si>
+    <t>3 days 22:05:22</t>
+  </si>
+  <si>
+    <t>4 days 04:41:34</t>
+  </si>
+  <si>
+    <t>4 days 11:05:41</t>
+  </si>
+  <si>
+    <t>4 days 12:34:44</t>
+  </si>
+  <si>
+    <t>4 days 15:48:28</t>
+  </si>
+  <si>
+    <t>4 days 19:13:26</t>
+  </si>
+  <si>
+    <t>4 days 20:43:44</t>
+  </si>
+  <si>
+    <t>5 days 07:39:15</t>
+  </si>
+  <si>
+    <t>5 days 10:53:57</t>
   </si>
   <si>
     <t>Finished</t>
@@ -3267,12 +3696,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3639,20 +4067,20 @@
       <c r="H2" t="s">
         <v>769</v>
       </c>
-      <c r="I2" s="2">
-        <v>2.614976851851852</v>
+      <c r="I2" t="s">
+        <v>787</v>
       </c>
       <c r="J2" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K2" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L2" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M2" t="s">
-        <v>790</v>
+        <v>933</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3677,20 +4105,20 @@
       <c r="G3" t="s">
         <v>767</v>
       </c>
-      <c r="I3" s="2">
-        <v>2.614988425925926</v>
+      <c r="I3" t="s">
+        <v>788</v>
       </c>
       <c r="J3" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K3" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L3" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M3" t="s">
-        <v>791</v>
+        <v>934</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3715,20 +4143,20 @@
       <c r="G4" t="s">
         <v>767</v>
       </c>
-      <c r="I4" s="2">
-        <v>2.939097222222222</v>
+      <c r="I4" t="s">
+        <v>789</v>
       </c>
       <c r="J4" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K4" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L4" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M4" t="s">
-        <v>792</v>
+        <v>935</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3753,20 +4181,20 @@
       <c r="G5" t="s">
         <v>767</v>
       </c>
-      <c r="I5" s="2">
-        <v>3.214074074074074</v>
+      <c r="I5" t="s">
+        <v>790</v>
       </c>
       <c r="J5" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K5" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L5" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M5" t="s">
-        <v>793</v>
+        <v>936</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3791,20 +4219,20 @@
       <c r="G6" t="s">
         <v>767</v>
       </c>
-      <c r="I6" s="2">
-        <v>3.34693287037037</v>
+      <c r="I6" t="s">
+        <v>791</v>
       </c>
       <c r="J6" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K6" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L6" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M6" t="s">
-        <v>794</v>
+        <v>937</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3829,20 +4257,20 @@
       <c r="G7" t="s">
         <v>767</v>
       </c>
-      <c r="I7" s="2">
-        <v>3.370428240740741</v>
+      <c r="I7" t="s">
+        <v>792</v>
       </c>
       <c r="J7" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K7" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L7" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M7" t="s">
-        <v>795</v>
+        <v>938</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3867,20 +4295,20 @@
       <c r="G8" t="s">
         <v>767</v>
       </c>
-      <c r="I8" s="2">
-        <v>3.456875</v>
+      <c r="I8" t="s">
+        <v>793</v>
       </c>
       <c r="J8" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K8" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L8" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M8" t="s">
-        <v>796</v>
+        <v>939</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3905,20 +4333,20 @@
       <c r="G9" t="s">
         <v>767</v>
       </c>
-      <c r="I9" s="2">
-        <v>3.470763888888889</v>
+      <c r="I9" t="s">
+        <v>794</v>
       </c>
       <c r="J9" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K9" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L9" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M9" t="s">
-        <v>797</v>
+        <v>940</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3943,20 +4371,20 @@
       <c r="G10" t="s">
         <v>767</v>
       </c>
-      <c r="I10" s="2">
-        <v>3.470659722222222</v>
+      <c r="I10" t="s">
+        <v>795</v>
       </c>
       <c r="J10" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K10" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L10" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M10" t="s">
-        <v>798</v>
+        <v>941</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3981,20 +4409,20 @@
       <c r="G11" t="s">
         <v>767</v>
       </c>
-      <c r="I11" s="2">
-        <v>3.604201388888889</v>
+      <c r="I11" t="s">
+        <v>796</v>
       </c>
       <c r="J11" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K11" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L11" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M11" t="s">
-        <v>799</v>
+        <v>942</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4019,20 +4447,20 @@
       <c r="G12" t="s">
         <v>767</v>
       </c>
-      <c r="I12" s="2">
-        <v>3.642731481481481</v>
+      <c r="I12" t="s">
+        <v>797</v>
       </c>
       <c r="J12" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K12" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L12" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M12" t="s">
-        <v>800</v>
+        <v>943</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -4057,20 +4485,20 @@
       <c r="G13" t="s">
         <v>767</v>
       </c>
-      <c r="I13" s="2">
-        <v>3.704409722222222</v>
+      <c r="I13" t="s">
+        <v>798</v>
       </c>
       <c r="J13" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K13" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L13" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M13" t="s">
-        <v>801</v>
+        <v>944</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -4095,20 +4523,20 @@
       <c r="G14" t="s">
         <v>767</v>
       </c>
-      <c r="I14" s="2">
-        <v>3.704155092592593</v>
+      <c r="I14" t="s">
+        <v>799</v>
       </c>
       <c r="J14" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K14" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L14" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M14" t="s">
-        <v>802</v>
+        <v>945</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -4133,20 +4561,20 @@
       <c r="G15" t="s">
         <v>767</v>
       </c>
-      <c r="I15" s="2">
-        <v>3.744953703703704</v>
+      <c r="I15" t="s">
+        <v>800</v>
       </c>
       <c r="J15" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K15" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L15" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M15" t="s">
-        <v>803</v>
+        <v>946</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -4171,20 +4599,20 @@
       <c r="G16" t="s">
         <v>767</v>
       </c>
-      <c r="I16" s="2">
-        <v>3.766238425925926</v>
+      <c r="I16" t="s">
+        <v>801</v>
       </c>
       <c r="J16" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K16" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L16" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M16" t="s">
-        <v>804</v>
+        <v>947</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -4209,20 +4637,20 @@
       <c r="G17" t="s">
         <v>767</v>
       </c>
-      <c r="I17" s="2">
-        <v>3.785694444444444</v>
+      <c r="I17" t="s">
+        <v>802</v>
       </c>
       <c r="J17" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K17" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L17" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M17" t="s">
-        <v>805</v>
+        <v>948</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -4247,20 +4675,20 @@
       <c r="G18" t="s">
         <v>767</v>
       </c>
-      <c r="I18" s="2">
-        <v>3.804965277777778</v>
+      <c r="I18" t="s">
+        <v>803</v>
       </c>
       <c r="J18" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K18" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L18" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M18" t="s">
-        <v>806</v>
+        <v>949</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -4285,20 +4713,20 @@
       <c r="G19" t="s">
         <v>767</v>
       </c>
-      <c r="I19" s="2">
-        <v>3.810092592592593</v>
+      <c r="I19" t="s">
+        <v>804</v>
       </c>
       <c r="J19" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K19" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L19" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M19" t="s">
-        <v>807</v>
+        <v>950</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -4323,20 +4751,20 @@
       <c r="G20" t="s">
         <v>767</v>
       </c>
-      <c r="I20" s="2">
-        <v>3.845601851851852</v>
+      <c r="I20" t="s">
+        <v>805</v>
       </c>
       <c r="J20" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K20" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L20" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M20" t="s">
-        <v>808</v>
+        <v>951</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -4364,20 +4792,20 @@
       <c r="H21" t="s">
         <v>770</v>
       </c>
-      <c r="I21" s="2">
-        <v>3.87337962962963</v>
+      <c r="I21" t="s">
+        <v>806</v>
       </c>
       <c r="J21" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K21" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L21" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M21" t="s">
-        <v>809</v>
+        <v>952</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -4402,20 +4830,20 @@
       <c r="G22" t="s">
         <v>767</v>
       </c>
-      <c r="I22" s="2">
-        <v>3.92412037037037</v>
+      <c r="I22" t="s">
+        <v>807</v>
       </c>
       <c r="J22" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K22" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L22" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M22" t="s">
-        <v>810</v>
+        <v>953</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -4443,20 +4871,20 @@
       <c r="H23" t="s">
         <v>771</v>
       </c>
-      <c r="I23" s="2">
-        <v>3.93162037037037</v>
+      <c r="I23" t="s">
+        <v>808</v>
       </c>
       <c r="J23" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K23" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L23" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M23" t="s">
-        <v>811</v>
+        <v>954</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -4481,20 +4909,20 @@
       <c r="G24" t="s">
         <v>767</v>
       </c>
-      <c r="I24" s="2">
-        <v>3.939976851851852</v>
+      <c r="I24" t="s">
+        <v>809</v>
       </c>
       <c r="J24" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K24" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L24" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M24" t="s">
-        <v>812</v>
+        <v>955</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -4519,20 +4947,20 @@
       <c r="G25" t="s">
         <v>767</v>
       </c>
-      <c r="I25" s="2">
-        <v>3.953310185185185</v>
+      <c r="I25" t="s">
+        <v>810</v>
       </c>
       <c r="J25" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K25" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L25" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M25" t="s">
-        <v>813</v>
+        <v>956</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -4557,20 +4985,20 @@
       <c r="G26" t="s">
         <v>767</v>
       </c>
-      <c r="I26" s="2">
-        <v>3.994814814814815</v>
+      <c r="I26" t="s">
+        <v>811</v>
       </c>
       <c r="J26" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K26" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L26" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M26" t="s">
-        <v>814</v>
+        <v>957</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -4595,20 +5023,20 @@
       <c r="G27" t="s">
         <v>767</v>
       </c>
-      <c r="I27" s="2">
-        <v>3.998877314814815</v>
+      <c r="I27" t="s">
+        <v>812</v>
       </c>
       <c r="J27" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K27" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L27" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M27" t="s">
-        <v>815</v>
+        <v>958</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -4633,20 +5061,20 @@
       <c r="G28" t="s">
         <v>767</v>
       </c>
-      <c r="I28" s="2">
-        <v>4.04261574074074</v>
+      <c r="I28" t="s">
+        <v>813</v>
       </c>
       <c r="J28" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K28" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L28" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M28" t="s">
-        <v>816</v>
+        <v>959</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -4674,20 +5102,20 @@
       <c r="H29" t="s">
         <v>772</v>
       </c>
-      <c r="I29" s="2">
-        <v>4.078159722222222</v>
+      <c r="I29" t="s">
+        <v>814</v>
       </c>
       <c r="J29" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K29" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L29" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M29" t="s">
-        <v>817</v>
+        <v>960</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -4712,20 +5140,20 @@
       <c r="G30" t="s">
         <v>767</v>
       </c>
-      <c r="I30" s="2">
-        <v>4.11369212962963</v>
+      <c r="I30" t="s">
+        <v>815</v>
       </c>
       <c r="J30" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K30" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L30" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M30" t="s">
-        <v>818</v>
+        <v>961</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -4750,20 +5178,20 @@
       <c r="G31" t="s">
         <v>767</v>
       </c>
-      <c r="I31" s="2">
-        <v>4.113784722222222</v>
+      <c r="I31" t="s">
+        <v>816</v>
       </c>
       <c r="J31" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K31" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L31" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M31" t="s">
-        <v>819</v>
+        <v>962</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -4788,20 +5216,20 @@
       <c r="G32" t="s">
         <v>767</v>
       </c>
-      <c r="I32" s="2">
-        <v>4.132650462962963</v>
+      <c r="I32" t="s">
+        <v>817</v>
       </c>
       <c r="J32" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K32" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L32" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M32" t="s">
-        <v>820</v>
+        <v>963</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -4826,20 +5254,20 @@
       <c r="G33" t="s">
         <v>767</v>
       </c>
-      <c r="I33" s="2">
-        <v>4.186539351851851</v>
+      <c r="I33" t="s">
+        <v>818</v>
       </c>
       <c r="J33" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K33" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L33" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M33" t="s">
-        <v>821</v>
+        <v>964</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -4864,20 +5292,20 @@
       <c r="G34" t="s">
         <v>767</v>
       </c>
-      <c r="I34" s="2">
-        <v>4.190347222222222</v>
+      <c r="I34" t="s">
+        <v>819</v>
       </c>
       <c r="J34" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K34" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L34" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M34" t="s">
-        <v>822</v>
+        <v>965</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -4902,20 +5330,20 @@
       <c r="G35" t="s">
         <v>767</v>
       </c>
-      <c r="I35" s="2">
-        <v>4.19587962962963</v>
+      <c r="I35" t="s">
+        <v>820</v>
       </c>
       <c r="J35" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K35" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L35" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M35" t="s">
-        <v>823</v>
+        <v>966</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -4940,20 +5368,20 @@
       <c r="G36" t="s">
         <v>767</v>
       </c>
-      <c r="I36" s="2">
-        <v>4.22837962962963</v>
+      <c r="I36" t="s">
+        <v>821</v>
       </c>
       <c r="J36" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K36" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L36" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M36" t="s">
-        <v>824</v>
+        <v>967</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -4978,20 +5406,20 @@
       <c r="G37" t="s">
         <v>767</v>
       </c>
-      <c r="I37" s="2">
-        <v>4.272615740740741</v>
+      <c r="I37" t="s">
+        <v>822</v>
       </c>
       <c r="J37" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K37" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L37" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M37" t="s">
-        <v>825</v>
+        <v>968</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -5016,20 +5444,20 @@
       <c r="G38" t="s">
         <v>767</v>
       </c>
-      <c r="I38" s="2">
-        <v>4.272962962962963</v>
+      <c r="I38" t="s">
+        <v>823</v>
       </c>
       <c r="J38" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K38" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L38" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M38" t="s">
-        <v>826</v>
+        <v>969</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -5054,20 +5482,20 @@
       <c r="G39" t="s">
         <v>767</v>
       </c>
-      <c r="I39" s="2">
-        <v>4.273055555555556</v>
+      <c r="I39" t="s">
+        <v>824</v>
       </c>
       <c r="J39" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K39" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L39" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M39" t="s">
-        <v>827</v>
+        <v>970</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -5092,20 +5520,20 @@
       <c r="G40" t="s">
         <v>767</v>
       </c>
-      <c r="I40" s="2">
-        <v>4.294016203703704</v>
+      <c r="I40" t="s">
+        <v>825</v>
       </c>
       <c r="J40" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K40" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L40" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M40" t="s">
-        <v>828</v>
+        <v>971</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -5130,20 +5558,20 @@
       <c r="G41" t="s">
         <v>767</v>
       </c>
-      <c r="I41" s="2">
-        <v>4.306631944444445</v>
+      <c r="I41" t="s">
+        <v>826</v>
       </c>
       <c r="J41" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K41" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L41" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M41" t="s">
-        <v>829</v>
+        <v>972</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -5168,20 +5596,20 @@
       <c r="G42" t="s">
         <v>767</v>
       </c>
-      <c r="I42" s="2">
-        <v>4.324722222222222</v>
+      <c r="I42" t="s">
+        <v>827</v>
       </c>
       <c r="J42" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K42" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L42" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M42" t="s">
-        <v>830</v>
+        <v>973</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -5206,20 +5634,20 @@
       <c r="G43" t="s">
         <v>767</v>
       </c>
-      <c r="I43" s="2">
-        <v>4.3409375</v>
+      <c r="I43" t="s">
+        <v>828</v>
       </c>
       <c r="J43" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K43" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L43" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M43" t="s">
-        <v>831</v>
+        <v>974</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -5244,20 +5672,20 @@
       <c r="G44" t="s">
         <v>767</v>
       </c>
-      <c r="I44" s="2">
-        <v>4.352685185185186</v>
+      <c r="I44" t="s">
+        <v>829</v>
       </c>
       <c r="J44" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K44" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L44" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M44" t="s">
-        <v>832</v>
+        <v>975</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -5282,20 +5710,20 @@
       <c r="G45" t="s">
         <v>767</v>
       </c>
-      <c r="I45" s="2">
-        <v>4.363518518518519</v>
+      <c r="I45" t="s">
+        <v>830</v>
       </c>
       <c r="J45" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K45" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L45" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M45" t="s">
-        <v>833</v>
+        <v>976</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -5320,20 +5748,20 @@
       <c r="G46" t="s">
         <v>767</v>
       </c>
-      <c r="I46" s="2">
-        <v>4.384293981481481</v>
+      <c r="I46" t="s">
+        <v>831</v>
       </c>
       <c r="J46" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K46" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L46" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M46" t="s">
-        <v>834</v>
+        <v>977</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -5358,20 +5786,20 @@
       <c r="G47" t="s">
         <v>767</v>
       </c>
-      <c r="I47" s="2">
-        <v>4.385833333333333</v>
+      <c r="I47" t="s">
+        <v>832</v>
       </c>
       <c r="J47" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K47" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L47" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M47" t="s">
-        <v>835</v>
+        <v>978</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -5396,20 +5824,20 @@
       <c r="G48" t="s">
         <v>767</v>
       </c>
-      <c r="I48" s="2">
-        <v>4.398564814814815</v>
+      <c r="I48" t="s">
+        <v>833</v>
       </c>
       <c r="J48" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K48" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L48" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M48" t="s">
-        <v>836</v>
+        <v>979</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -5434,20 +5862,20 @@
       <c r="G49" t="s">
         <v>767</v>
       </c>
-      <c r="I49" s="2">
-        <v>4.403425925925926</v>
+      <c r="I49" t="s">
+        <v>834</v>
       </c>
       <c r="J49" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K49" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L49" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M49" t="s">
-        <v>837</v>
+        <v>980</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -5472,20 +5900,20 @@
       <c r="G50" t="s">
         <v>767</v>
       </c>
-      <c r="I50" s="2">
-        <v>4.412951388888889</v>
+      <c r="I50" t="s">
+        <v>835</v>
       </c>
       <c r="J50" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K50" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L50" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M50" t="s">
-        <v>838</v>
+        <v>981</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -5510,20 +5938,20 @@
       <c r="G51" t="s">
         <v>767</v>
       </c>
-      <c r="I51" s="2">
-        <v>4.425335648148148</v>
+      <c r="I51" t="s">
+        <v>836</v>
       </c>
       <c r="J51" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K51" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L51" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M51" t="s">
-        <v>839</v>
+        <v>982</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -5548,20 +5976,20 @@
       <c r="G52" t="s">
         <v>767</v>
       </c>
-      <c r="I52" s="2">
-        <v>4.437118055555556</v>
+      <c r="I52" t="s">
+        <v>837</v>
       </c>
       <c r="J52" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K52" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L52" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M52" t="s">
-        <v>840</v>
+        <v>983</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -5586,20 +6014,20 @@
       <c r="G53" t="s">
         <v>767</v>
       </c>
-      <c r="I53" s="2">
-        <v>4.440625</v>
+      <c r="I53" t="s">
+        <v>838</v>
       </c>
       <c r="J53" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K53" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L53" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M53" t="s">
-        <v>841</v>
+        <v>984</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -5624,20 +6052,20 @@
       <c r="G54" t="s">
         <v>767</v>
       </c>
-      <c r="I54" s="2">
-        <v>4.449340277777778</v>
+      <c r="I54" t="s">
+        <v>839</v>
       </c>
       <c r="J54" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K54" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L54" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M54" t="s">
-        <v>842</v>
+        <v>985</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -5662,20 +6090,20 @@
       <c r="G55" t="s">
         <v>767</v>
       </c>
-      <c r="I55" s="2">
-        <v>4.45625</v>
+      <c r="I55" t="s">
+        <v>840</v>
       </c>
       <c r="J55" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K55" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L55" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M55" t="s">
-        <v>843</v>
+        <v>986</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -5700,20 +6128,20 @@
       <c r="G56" t="s">
         <v>767</v>
       </c>
-      <c r="I56" s="2">
-        <v>4.468298611111111</v>
+      <c r="I56" t="s">
+        <v>841</v>
       </c>
       <c r="J56" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K56" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L56" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M56" t="s">
-        <v>844</v>
+        <v>987</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -5738,20 +6166,20 @@
       <c r="G57" t="s">
         <v>767</v>
       </c>
-      <c r="I57" s="2">
-        <v>4.476481481481481</v>
+      <c r="I57" t="s">
+        <v>842</v>
       </c>
       <c r="J57" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K57" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L57" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M57" t="s">
-        <v>845</v>
+        <v>988</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -5776,20 +6204,20 @@
       <c r="G58" t="s">
         <v>767</v>
       </c>
-      <c r="I58" s="2">
-        <v>4.48619212962963</v>
+      <c r="I58" t="s">
+        <v>843</v>
       </c>
       <c r="J58" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K58" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L58" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M58" t="s">
-        <v>846</v>
+        <v>989</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -5814,20 +6242,20 @@
       <c r="G59" t="s">
         <v>767</v>
       </c>
-      <c r="I59" s="2">
-        <v>4.486944444444444</v>
+      <c r="I59" t="s">
+        <v>844</v>
       </c>
       <c r="J59" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K59" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L59" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M59" t="s">
-        <v>847</v>
+        <v>990</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -5852,20 +6280,20 @@
       <c r="G60" t="s">
         <v>767</v>
       </c>
-      <c r="I60" s="2">
-        <v>4.492199074074074</v>
+      <c r="I60" t="s">
+        <v>845</v>
       </c>
       <c r="J60" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K60" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L60" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M60" t="s">
-        <v>848</v>
+        <v>991</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -5890,20 +6318,20 @@
       <c r="G61" t="s">
         <v>767</v>
       </c>
-      <c r="I61" s="2">
-        <v>4.498912037037037</v>
+      <c r="I61" t="s">
+        <v>846</v>
       </c>
       <c r="J61" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K61" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L61" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M61" t="s">
-        <v>849</v>
+        <v>992</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -5928,20 +6356,20 @@
       <c r="G62" t="s">
         <v>767</v>
       </c>
-      <c r="I62" s="2">
-        <v>4.499467592592593</v>
+      <c r="I62" t="s">
+        <v>847</v>
       </c>
       <c r="J62" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K62" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L62" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M62" t="s">
-        <v>850</v>
+        <v>993</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -5966,20 +6394,20 @@
       <c r="G63" t="s">
         <v>767</v>
       </c>
-      <c r="I63" s="2">
-        <v>4.514768518518519</v>
+      <c r="I63" t="s">
+        <v>848</v>
       </c>
       <c r="J63" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K63" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L63" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M63" t="s">
-        <v>851</v>
+        <v>994</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -6004,20 +6432,20 @@
       <c r="G64" t="s">
         <v>767</v>
       </c>
-      <c r="I64" s="2">
-        <v>4.515</v>
+      <c r="I64" t="s">
+        <v>849</v>
       </c>
       <c r="J64" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K64" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L64" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M64" t="s">
-        <v>852</v>
+        <v>995</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -6042,20 +6470,20 @@
       <c r="G65" t="s">
         <v>767</v>
       </c>
-      <c r="I65" s="2">
-        <v>4.520069444444444</v>
+      <c r="I65" t="s">
+        <v>850</v>
       </c>
       <c r="J65" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K65" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L65" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M65" t="s">
-        <v>853</v>
+        <v>996</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -6080,20 +6508,20 @@
       <c r="G66" t="s">
         <v>767</v>
       </c>
-      <c r="I66" s="2">
-        <v>4.528877314814815</v>
+      <c r="I66" t="s">
+        <v>851</v>
       </c>
       <c r="J66" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K66" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L66" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M66" t="s">
-        <v>854</v>
+        <v>997</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -6118,20 +6546,20 @@
       <c r="G67" t="s">
         <v>767</v>
       </c>
-      <c r="I67" s="2">
-        <v>4.545821759259259</v>
+      <c r="I67" t="s">
+        <v>852</v>
       </c>
       <c r="J67" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K67" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L67" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M67" t="s">
-        <v>855</v>
+        <v>998</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -6156,20 +6584,20 @@
       <c r="G68" t="s">
         <v>767</v>
       </c>
-      <c r="I68" s="2">
-        <v>4.55599537037037</v>
+      <c r="I68" t="s">
+        <v>853</v>
       </c>
       <c r="J68" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K68" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L68" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M68" t="s">
-        <v>856</v>
+        <v>999</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -6194,20 +6622,20 @@
       <c r="G69" t="s">
         <v>767</v>
       </c>
-      <c r="I69" s="2">
-        <v>4.578842592592593</v>
+      <c r="I69" t="s">
+        <v>854</v>
       </c>
       <c r="J69" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K69" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L69" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M69" t="s">
-        <v>857</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -6232,20 +6660,20 @@
       <c r="G70" t="s">
         <v>767</v>
       </c>
-      <c r="I70" s="2">
-        <v>4.584768518518518</v>
+      <c r="I70" t="s">
+        <v>855</v>
       </c>
       <c r="J70" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K70" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L70" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M70" t="s">
-        <v>858</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -6270,20 +6698,20 @@
       <c r="G71" t="s">
         <v>767</v>
       </c>
-      <c r="I71" s="2">
-        <v>4.612708333333333</v>
+      <c r="I71" t="s">
+        <v>856</v>
       </c>
       <c r="J71" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K71" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L71" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M71" t="s">
-        <v>859</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -6308,20 +6736,20 @@
       <c r="G72" t="s">
         <v>767</v>
       </c>
-      <c r="I72" s="2">
-        <v>4.622060185185185</v>
+      <c r="I72" t="s">
+        <v>857</v>
       </c>
       <c r="J72" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K72" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L72" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M72" t="s">
-        <v>860</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -6346,20 +6774,20 @@
       <c r="G73" t="s">
         <v>767</v>
       </c>
-      <c r="I73" s="2">
-        <v>4.62494212962963</v>
+      <c r="I73" t="s">
+        <v>858</v>
       </c>
       <c r="J73" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K73" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L73" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M73" t="s">
-        <v>861</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -6384,20 +6812,20 @@
       <c r="G74" t="s">
         <v>767</v>
       </c>
-      <c r="I74" s="2">
-        <v>4.639768518518519</v>
+      <c r="I74" t="s">
+        <v>859</v>
       </c>
       <c r="J74" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K74" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L74" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M74" t="s">
-        <v>862</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -6422,20 +6850,20 @@
       <c r="G75" t="s">
         <v>767</v>
       </c>
-      <c r="I75" s="2">
-        <v>4.639733796296296</v>
+      <c r="I75" t="s">
+        <v>860</v>
       </c>
       <c r="J75" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K75" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L75" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M75" t="s">
-        <v>863</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -6460,20 +6888,20 @@
       <c r="G76" t="s">
         <v>767</v>
       </c>
-      <c r="I76" s="2">
-        <v>4.675578703703704</v>
+      <c r="I76" t="s">
+        <v>861</v>
       </c>
       <c r="J76" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K76" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L76" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M76" t="s">
-        <v>864</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -6498,20 +6926,20 @@
       <c r="G77" t="s">
         <v>767</v>
       </c>
-      <c r="I77" s="2">
-        <v>4.679641203703704</v>
+      <c r="I77" t="s">
+        <v>862</v>
       </c>
       <c r="J77" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K77" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L77" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M77" t="s">
-        <v>865</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -6536,20 +6964,20 @@
       <c r="G78" t="s">
         <v>767</v>
       </c>
-      <c r="I78" s="2">
-        <v>4.6915625</v>
+      <c r="I78" t="s">
+        <v>863</v>
       </c>
       <c r="J78" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K78" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L78" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M78" t="s">
-        <v>866</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -6574,20 +7002,20 @@
       <c r="G79" t="s">
         <v>767</v>
       </c>
-      <c r="I79" s="2">
-        <v>4.700231481481482</v>
+      <c r="I79" t="s">
+        <v>864</v>
       </c>
       <c r="J79" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K79" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L79" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M79" t="s">
-        <v>867</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -6612,20 +7040,20 @@
       <c r="G80" t="s">
         <v>767</v>
       </c>
-      <c r="I80" s="2">
-        <v>4.705995370370371</v>
+      <c r="I80" t="s">
+        <v>865</v>
       </c>
       <c r="J80" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K80" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L80" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M80" t="s">
-        <v>868</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -6650,20 +7078,20 @@
       <c r="G81" t="s">
         <v>767</v>
       </c>
-      <c r="I81" s="2">
-        <v>4.716493055555556</v>
+      <c r="I81" t="s">
+        <v>866</v>
       </c>
       <c r="J81" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K81" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L81" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M81" t="s">
-        <v>869</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -6688,20 +7116,20 @@
       <c r="G82" t="s">
         <v>767</v>
       </c>
-      <c r="I82" s="2">
-        <v>4.734953703703703</v>
+      <c r="I82" t="s">
+        <v>867</v>
       </c>
       <c r="J82" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K82" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L82" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M82" t="s">
-        <v>870</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -6726,20 +7154,20 @@
       <c r="G83" t="s">
         <v>767</v>
       </c>
-      <c r="I83" s="2">
-        <v>4.741504629629629</v>
+      <c r="I83" t="s">
+        <v>868</v>
       </c>
       <c r="J83" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K83" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L83" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M83" t="s">
-        <v>871</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -6764,20 +7192,20 @@
       <c r="G84" t="s">
         <v>767</v>
       </c>
-      <c r="I84" s="2">
-        <v>4.742847222222222</v>
+      <c r="I84" t="s">
+        <v>869</v>
       </c>
       <c r="J84" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K84" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L84" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M84" t="s">
-        <v>872</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -6802,20 +7230,20 @@
       <c r="G85" t="s">
         <v>767</v>
       </c>
-      <c r="I85" s="2">
-        <v>4.742928240740741</v>
+      <c r="I85" t="s">
+        <v>870</v>
       </c>
       <c r="J85" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K85" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L85" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M85" t="s">
-        <v>873</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -6840,20 +7268,20 @@
       <c r="G86" t="s">
         <v>767</v>
       </c>
-      <c r="I86" s="2">
-        <v>4.757476851851852</v>
+      <c r="I86" t="s">
+        <v>871</v>
       </c>
       <c r="J86" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K86" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L86" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M86" t="s">
-        <v>874</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -6878,20 +7306,20 @@
       <c r="G87" t="s">
         <v>767</v>
       </c>
-      <c r="I87" s="2">
-        <v>4.757916666666667</v>
+      <c r="I87" t="s">
+        <v>872</v>
       </c>
       <c r="J87" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K87" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L87" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M87" t="s">
-        <v>875</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -6916,20 +7344,20 @@
       <c r="G88" t="s">
         <v>767</v>
       </c>
-      <c r="I88" s="2">
-        <v>4.772974537037037</v>
+      <c r="I88" t="s">
+        <v>873</v>
       </c>
       <c r="J88" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K88" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L88" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M88" t="s">
-        <v>876</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -6954,20 +7382,20 @@
       <c r="G89" t="s">
         <v>767</v>
       </c>
-      <c r="I89" s="2">
-        <v>4.792939814814815</v>
+      <c r="I89" t="s">
+        <v>874</v>
       </c>
       <c r="J89" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K89" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L89" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M89" t="s">
-        <v>877</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -6992,20 +7420,20 @@
       <c r="G90" t="s">
         <v>767</v>
       </c>
-      <c r="I90" s="2">
-        <v>4.804930555555556</v>
+      <c r="I90" t="s">
+        <v>875</v>
       </c>
       <c r="J90" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K90" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L90" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M90" t="s">
-        <v>878</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -7030,20 +7458,20 @@
       <c r="G91" t="s">
         <v>767</v>
       </c>
-      <c r="I91" s="2">
-        <v>4.813043981481481</v>
+      <c r="I91" t="s">
+        <v>876</v>
       </c>
       <c r="J91" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K91" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L91" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M91" t="s">
-        <v>879</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -7068,20 +7496,20 @@
       <c r="G92" t="s">
         <v>767</v>
       </c>
-      <c r="I92" s="2">
-        <v>4.847488425925926</v>
+      <c r="I92" t="s">
+        <v>877</v>
       </c>
       <c r="J92" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K92" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L92" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M92" t="s">
-        <v>880</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -7106,20 +7534,20 @@
       <c r="G93" t="s">
         <v>767</v>
       </c>
-      <c r="I93" s="2">
-        <v>4.857210648148148</v>
+      <c r="I93" t="s">
+        <v>878</v>
       </c>
       <c r="J93" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K93" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L93" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M93" t="s">
-        <v>881</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -7147,20 +7575,20 @@
       <c r="H94" t="s">
         <v>773</v>
       </c>
-      <c r="I94" s="2">
-        <v>4.896585648148148</v>
+      <c r="I94" t="s">
+        <v>879</v>
       </c>
       <c r="J94" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K94" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L94" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M94" t="s">
-        <v>882</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -7185,20 +7613,20 @@
       <c r="G95" t="s">
         <v>767</v>
       </c>
-      <c r="I95" s="2">
-        <v>4.916770833333334</v>
+      <c r="I95" t="s">
+        <v>880</v>
       </c>
       <c r="J95" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K95" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L95" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M95" t="s">
-        <v>883</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -7223,20 +7651,20 @@
       <c r="G96" t="s">
         <v>767</v>
       </c>
-      <c r="I96" s="2">
-        <v>4.942002314814815</v>
+      <c r="I96" t="s">
+        <v>881</v>
       </c>
       <c r="J96" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K96" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L96" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M96" t="s">
-        <v>884</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -7261,20 +7689,20 @@
       <c r="G97" t="s">
         <v>767</v>
       </c>
-      <c r="I97" s="2">
-        <v>4.9415625</v>
+      <c r="I97" t="s">
+        <v>882</v>
       </c>
       <c r="J97" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K97" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L97" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M97" t="s">
-        <v>885</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -7302,20 +7730,20 @@
       <c r="H98" t="s">
         <v>774</v>
       </c>
-      <c r="I98" s="2">
-        <v>4.941597222222223</v>
+      <c r="I98" t="s">
+        <v>883</v>
       </c>
       <c r="J98" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K98" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L98" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M98" t="s">
-        <v>886</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -7343,20 +7771,20 @@
       <c r="H99" t="s">
         <v>775</v>
       </c>
-      <c r="I99" s="2">
-        <v>4.941724537037037</v>
+      <c r="I99" t="s">
+        <v>884</v>
       </c>
       <c r="J99" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K99" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L99" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M99" t="s">
-        <v>887</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -7381,20 +7809,20 @@
       <c r="G100" t="s">
         <v>767</v>
       </c>
-      <c r="I100" s="2">
-        <v>4.941863425925926</v>
+      <c r="I100" t="s">
+        <v>885</v>
       </c>
       <c r="J100" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K100" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L100" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M100" t="s">
-        <v>888</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -7419,20 +7847,20 @@
       <c r="G101" t="s">
         <v>767</v>
       </c>
-      <c r="I101" s="2">
-        <v>4.941585648148148</v>
+      <c r="I101" t="s">
+        <v>886</v>
       </c>
       <c r="J101" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K101" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L101" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M101" t="s">
-        <v>889</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -7457,20 +7885,20 @@
       <c r="G102" t="s">
         <v>767</v>
       </c>
-      <c r="I102" s="2">
-        <v>4.953298611111111</v>
+      <c r="I102" t="s">
+        <v>887</v>
       </c>
       <c r="J102" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K102" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L102" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M102" t="s">
-        <v>890</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -7495,20 +7923,20 @@
       <c r="G103" t="s">
         <v>767</v>
       </c>
-      <c r="I103" s="2">
-        <v>4.966168981481482</v>
+      <c r="I103" t="s">
+        <v>888</v>
       </c>
       <c r="J103" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K103" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L103" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M103" t="s">
-        <v>891</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -7533,20 +7961,20 @@
       <c r="G104" t="s">
         <v>767</v>
       </c>
-      <c r="I104" s="2">
-        <v>4.966192129629629</v>
+      <c r="I104" t="s">
+        <v>889</v>
       </c>
       <c r="J104" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K104" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L104" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M104" t="s">
-        <v>892</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -7571,20 +7999,20 @@
       <c r="G105" t="s">
         <v>767</v>
       </c>
-      <c r="I105" s="2">
-        <v>4.972824074074074</v>
+      <c r="I105" t="s">
+        <v>890</v>
       </c>
       <c r="J105" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K105" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L105" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M105" t="s">
-        <v>893</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -7609,20 +8037,20 @@
       <c r="G106" t="s">
         <v>767</v>
       </c>
-      <c r="I106" s="2">
-        <v>5.003935185185185</v>
+      <c r="I106" t="s">
+        <v>891</v>
       </c>
       <c r="J106" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K106" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L106" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M106" t="s">
-        <v>894</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -7647,20 +8075,20 @@
       <c r="G107" t="s">
         <v>767</v>
       </c>
-      <c r="I107" s="2">
-        <v>5.020497685185185</v>
+      <c r="I107" t="s">
+        <v>892</v>
       </c>
       <c r="J107" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K107" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L107" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M107" t="s">
-        <v>895</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -7685,20 +8113,20 @@
       <c r="G108" t="s">
         <v>767</v>
       </c>
-      <c r="I108" s="2">
-        <v>5.020358796296296</v>
+      <c r="I108" t="s">
+        <v>893</v>
       </c>
       <c r="J108" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K108" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L108" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M108" t="s">
-        <v>896</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -7723,20 +8151,20 @@
       <c r="G109" t="s">
         <v>767</v>
       </c>
-      <c r="I109" s="2">
-        <v>5.069050925925926</v>
+      <c r="I109" t="s">
+        <v>894</v>
       </c>
       <c r="J109" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K109" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L109" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M109" t="s">
-        <v>897</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -7761,20 +8189,20 @@
       <c r="G110" t="s">
         <v>767</v>
       </c>
-      <c r="I110" s="2">
-        <v>5.087939814814815</v>
+      <c r="I110" t="s">
+        <v>895</v>
       </c>
       <c r="J110" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K110" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L110" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M110" t="s">
-        <v>898</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -7799,20 +8227,20 @@
       <c r="G111" t="s">
         <v>767</v>
       </c>
-      <c r="I111" s="2">
-        <v>5.103564814814815</v>
+      <c r="I111" t="s">
+        <v>896</v>
       </c>
       <c r="J111" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K111" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L111" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M111" t="s">
-        <v>899</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -7840,20 +8268,20 @@
       <c r="H112" t="s">
         <v>776</v>
       </c>
-      <c r="I112" s="2">
-        <v>5.199837962962963</v>
+      <c r="I112" t="s">
+        <v>897</v>
       </c>
       <c r="J112" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K112" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L112" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M112" t="s">
-        <v>900</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -7878,20 +8306,20 @@
       <c r="G113" t="s">
         <v>767</v>
       </c>
-      <c r="I113" s="2">
-        <v>5.224861111111111</v>
+      <c r="I113" t="s">
+        <v>898</v>
       </c>
       <c r="J113" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K113" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L113" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M113" t="s">
-        <v>901</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -7916,20 +8344,20 @@
       <c r="G114" t="s">
         <v>767</v>
       </c>
-      <c r="I114" s="2">
-        <v>5.301446759259259</v>
+      <c r="I114" t="s">
+        <v>899</v>
       </c>
       <c r="J114" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K114" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L114" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M114" t="s">
-        <v>902</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -7954,20 +8382,20 @@
       <c r="G115" t="s">
         <v>767</v>
       </c>
-      <c r="I115" s="2">
-        <v>5.301481481481481</v>
+      <c r="I115" t="s">
+        <v>900</v>
       </c>
       <c r="J115" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K115" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L115" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M115" t="s">
-        <v>903</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -7992,20 +8420,20 @@
       <c r="G116" t="s">
         <v>767</v>
       </c>
-      <c r="I116" s="2">
-        <v>5.318935185185185</v>
+      <c r="I116" t="s">
+        <v>901</v>
       </c>
       <c r="J116" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K116" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L116" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M116" t="s">
-        <v>904</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -8030,20 +8458,20 @@
       <c r="G117" t="s">
         <v>767</v>
       </c>
-      <c r="I117" s="2">
-        <v>5.325717592592593</v>
+      <c r="I117" t="s">
+        <v>902</v>
       </c>
       <c r="J117" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K117" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L117" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M117" t="s">
-        <v>905</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -8068,20 +8496,20 @@
       <c r="G118" t="s">
         <v>767</v>
       </c>
-      <c r="I118" s="2">
-        <v>5.335821759259259</v>
+      <c r="I118" t="s">
+        <v>903</v>
       </c>
       <c r="J118" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K118" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L118" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M118" t="s">
-        <v>906</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -8106,20 +8534,20 @@
       <c r="G119" t="s">
         <v>767</v>
       </c>
-      <c r="I119" s="2">
-        <v>5.357546296296296</v>
+      <c r="I119" t="s">
+        <v>904</v>
       </c>
       <c r="J119" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K119" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L119" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M119" t="s">
-        <v>907</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -8144,20 +8572,20 @@
       <c r="G120" t="s">
         <v>767</v>
       </c>
-      <c r="I120" s="2">
-        <v>5.360740740740741</v>
+      <c r="I120" t="s">
+        <v>905</v>
       </c>
       <c r="J120" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K120" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L120" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M120" t="s">
-        <v>908</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -8182,20 +8610,20 @@
       <c r="G121" t="s">
         <v>767</v>
       </c>
-      <c r="I121" s="2">
-        <v>5.360983796296297</v>
+      <c r="I121" t="s">
+        <v>906</v>
       </c>
       <c r="J121" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K121" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L121" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M121" t="s">
-        <v>909</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -8223,20 +8651,20 @@
       <c r="H122" t="s">
         <v>777</v>
       </c>
-      <c r="I122" s="2">
-        <v>5.365856481481481</v>
+      <c r="I122" t="s">
+        <v>907</v>
       </c>
       <c r="J122" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K122" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L122" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M122" t="s">
-        <v>910</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -8261,20 +8689,20 @@
       <c r="G123" t="s">
         <v>767</v>
       </c>
-      <c r="I123" s="2">
-        <v>5.373831018518518</v>
+      <c r="I123" t="s">
+        <v>908</v>
       </c>
       <c r="J123" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K123" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L123" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M123" t="s">
-        <v>911</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -8299,20 +8727,20 @@
       <c r="G124" t="s">
         <v>767</v>
       </c>
-      <c r="I124" s="2">
-        <v>5.374282407407407</v>
+      <c r="I124" t="s">
+        <v>909</v>
       </c>
       <c r="J124" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K124" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L124" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M124" t="s">
-        <v>912</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -8337,20 +8765,20 @@
       <c r="G125" t="s">
         <v>767</v>
       </c>
-      <c r="I125" s="2">
-        <v>5.386689814814815</v>
+      <c r="I125" t="s">
+        <v>910</v>
       </c>
       <c r="J125" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K125" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L125" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M125" t="s">
-        <v>913</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -8375,20 +8803,20 @@
       <c r="G126" t="s">
         <v>767</v>
       </c>
-      <c r="I126" s="2">
-        <v>5.395543981481482</v>
+      <c r="I126" t="s">
+        <v>911</v>
       </c>
       <c r="J126" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K126" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L126" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M126" t="s">
-        <v>914</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -8413,20 +8841,20 @@
       <c r="G127" t="s">
         <v>767</v>
       </c>
-      <c r="I127" s="2">
-        <v>5.404224537037037</v>
+      <c r="I127" t="s">
+        <v>912</v>
       </c>
       <c r="J127" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K127" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L127" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M127" t="s">
-        <v>915</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -8451,20 +8879,20 @@
       <c r="G128" t="s">
         <v>767</v>
       </c>
-      <c r="I128" s="2">
-        <v>5.411828703703704</v>
+      <c r="I128" t="s">
+        <v>913</v>
       </c>
       <c r="J128" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K128" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L128" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M128" t="s">
-        <v>916</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -8489,20 +8917,20 @@
       <c r="G129" t="s">
         <v>767</v>
       </c>
-      <c r="I129" s="2">
-        <v>5.492442129629629</v>
+      <c r="I129" t="s">
+        <v>914</v>
       </c>
       <c r="J129" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K129" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L129" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M129" t="s">
-        <v>917</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -8527,20 +8955,20 @@
       <c r="G130" t="s">
         <v>767</v>
       </c>
-      <c r="I130" s="2">
-        <v>5.502557870370371</v>
+      <c r="I130" t="s">
+        <v>915</v>
       </c>
       <c r="J130" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K130" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L130" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M130" t="s">
-        <v>918</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -8565,17 +8993,20 @@
       <c r="G131" t="s">
         <v>767</v>
       </c>
+      <c r="I131" t="s">
+        <v>916</v>
+      </c>
       <c r="J131" t="s">
         <v>418</v>
       </c>
       <c r="K131" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L131" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M131" t="s">
-        <v>919</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -8600,17 +9031,20 @@
       <c r="G132" t="s">
         <v>767</v>
       </c>
+      <c r="I132" t="s">
+        <v>916</v>
+      </c>
       <c r="J132" t="s">
         <v>418</v>
       </c>
       <c r="K132" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L132" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M132" t="s">
-        <v>920</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -8638,17 +9072,20 @@
       <c r="H133" t="s">
         <v>778</v>
       </c>
+      <c r="I133" t="s">
+        <v>916</v>
+      </c>
       <c r="J133" t="s">
         <v>418</v>
       </c>
       <c r="K133" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L133" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M133" t="s">
-        <v>921</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -8673,17 +9110,20 @@
       <c r="G134" t="s">
         <v>767</v>
       </c>
+      <c r="I134" t="s">
+        <v>916</v>
+      </c>
       <c r="J134" t="s">
         <v>418</v>
       </c>
       <c r="K134" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L134" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M134" t="s">
-        <v>922</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -8708,17 +9148,20 @@
       <c r="G135" t="s">
         <v>767</v>
       </c>
+      <c r="I135" t="s">
+        <v>916</v>
+      </c>
       <c r="J135" t="s">
         <v>418</v>
       </c>
       <c r="K135" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L135" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M135" t="s">
-        <v>923</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -8746,17 +9189,20 @@
       <c r="H136" t="s">
         <v>779</v>
       </c>
+      <c r="I136" t="s">
+        <v>916</v>
+      </c>
       <c r="J136" t="s">
         <v>418</v>
       </c>
       <c r="K136" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L136" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M136" t="s">
-        <v>924</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -8781,17 +9227,20 @@
       <c r="G137" t="s">
         <v>767</v>
       </c>
+      <c r="I137" t="s">
+        <v>916</v>
+      </c>
       <c r="J137" t="s">
         <v>418</v>
       </c>
       <c r="K137" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L137" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M137" t="s">
-        <v>925</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -8816,17 +9265,20 @@
       <c r="G138" t="s">
         <v>767</v>
       </c>
+      <c r="I138" t="s">
+        <v>916</v>
+      </c>
       <c r="J138" t="s">
         <v>418</v>
       </c>
       <c r="K138" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L138" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M138" t="s">
-        <v>926</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -8854,17 +9306,20 @@
       <c r="H139" t="s">
         <v>780</v>
       </c>
+      <c r="I139" t="s">
+        <v>916</v>
+      </c>
       <c r="J139" t="s">
         <v>418</v>
       </c>
       <c r="K139" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L139" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M139" t="s">
-        <v>927</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -8889,17 +9344,20 @@
       <c r="G140" t="s">
         <v>767</v>
       </c>
+      <c r="I140" t="s">
+        <v>916</v>
+      </c>
       <c r="J140" t="s">
         <v>418</v>
       </c>
       <c r="K140" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L140" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M140" t="s">
-        <v>928</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -8924,17 +9382,20 @@
       <c r="G141" t="s">
         <v>767</v>
       </c>
+      <c r="I141" t="s">
+        <v>916</v>
+      </c>
       <c r="J141" t="s">
         <v>418</v>
       </c>
       <c r="K141" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L141" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M141" t="s">
-        <v>929</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -8959,17 +9420,20 @@
       <c r="G142" t="s">
         <v>767</v>
       </c>
+      <c r="I142" t="s">
+        <v>916</v>
+      </c>
       <c r="J142" t="s">
         <v>418</v>
       </c>
       <c r="K142" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L142" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M142" t="s">
-        <v>930</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -8994,17 +9458,20 @@
       <c r="G143" t="s">
         <v>767</v>
       </c>
+      <c r="I143" t="s">
+        <v>916</v>
+      </c>
       <c r="J143" t="s">
         <v>418</v>
       </c>
       <c r="K143" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L143" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M143" t="s">
-        <v>931</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -9029,17 +9496,20 @@
       <c r="G144" t="s">
         <v>767</v>
       </c>
+      <c r="I144" t="s">
+        <v>916</v>
+      </c>
       <c r="J144" t="s">
         <v>418</v>
       </c>
       <c r="K144" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L144" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M144" t="s">
-        <v>932</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -9064,17 +9534,20 @@
       <c r="G145" t="s">
         <v>767</v>
       </c>
+      <c r="I145" t="s">
+        <v>916</v>
+      </c>
       <c r="J145" t="s">
         <v>418</v>
       </c>
       <c r="K145" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L145" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M145" t="s">
-        <v>933</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -9099,17 +9572,20 @@
       <c r="G146" t="s">
         <v>767</v>
       </c>
+      <c r="I146" t="s">
+        <v>916</v>
+      </c>
       <c r="J146" t="s">
         <v>418</v>
       </c>
       <c r="K146" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L146" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M146" t="s">
-        <v>934</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -9134,17 +9610,20 @@
       <c r="G147" t="s">
         <v>767</v>
       </c>
+      <c r="I147" t="s">
+        <v>916</v>
+      </c>
       <c r="J147" t="s">
         <v>418</v>
       </c>
       <c r="K147" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L147" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M147" t="s">
-        <v>935</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -9169,17 +9648,20 @@
       <c r="G148" t="s">
         <v>767</v>
       </c>
+      <c r="I148" t="s">
+        <v>916</v>
+      </c>
       <c r="J148" t="s">
         <v>418</v>
       </c>
       <c r="K148" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L148" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M148" t="s">
-        <v>936</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -9204,17 +9686,20 @@
       <c r="G149" t="s">
         <v>767</v>
       </c>
+      <c r="I149" t="s">
+        <v>916</v>
+      </c>
       <c r="J149" t="s">
         <v>418</v>
       </c>
       <c r="K149" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L149" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M149" t="s">
-        <v>937</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -9239,17 +9724,20 @@
       <c r="G150" t="s">
         <v>767</v>
       </c>
+      <c r="I150" t="s">
+        <v>916</v>
+      </c>
       <c r="J150" t="s">
         <v>418</v>
       </c>
       <c r="K150" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L150" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M150" t="s">
-        <v>938</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -9274,17 +9762,20 @@
       <c r="G151" t="s">
         <v>767</v>
       </c>
+      <c r="I151" t="s">
+        <v>916</v>
+      </c>
       <c r="J151" t="s">
         <v>418</v>
       </c>
       <c r="K151" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L151" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M151" t="s">
-        <v>939</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -9309,17 +9800,20 @@
       <c r="G152" t="s">
         <v>767</v>
       </c>
+      <c r="I152" t="s">
+        <v>916</v>
+      </c>
       <c r="J152" t="s">
         <v>418</v>
       </c>
       <c r="K152" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L152" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M152" t="s">
-        <v>940</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -9347,17 +9841,20 @@
       <c r="H153" t="s">
         <v>781</v>
       </c>
+      <c r="I153" t="s">
+        <v>916</v>
+      </c>
       <c r="J153" t="s">
         <v>418</v>
       </c>
       <c r="K153" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L153" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M153" t="s">
-        <v>941</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -9382,17 +9879,20 @@
       <c r="G154" t="s">
         <v>767</v>
       </c>
+      <c r="I154" t="s">
+        <v>916</v>
+      </c>
       <c r="J154" t="s">
         <v>418</v>
       </c>
       <c r="K154" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L154" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M154" t="s">
-        <v>942</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -9417,17 +9917,20 @@
       <c r="G155" t="s">
         <v>767</v>
       </c>
+      <c r="I155" t="s">
+        <v>916</v>
+      </c>
       <c r="J155" t="s">
         <v>418</v>
       </c>
       <c r="K155" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L155" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M155" t="s">
-        <v>943</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -9452,17 +9955,20 @@
       <c r="G156" t="s">
         <v>767</v>
       </c>
+      <c r="I156" t="s">
+        <v>916</v>
+      </c>
       <c r="J156" t="s">
         <v>418</v>
       </c>
       <c r="K156" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L156" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M156" t="s">
-        <v>944</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -9487,17 +9993,20 @@
       <c r="G157" t="s">
         <v>767</v>
       </c>
+      <c r="I157" t="s">
+        <v>916</v>
+      </c>
       <c r="J157" t="s">
         <v>418</v>
       </c>
       <c r="K157" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L157" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M157" t="s">
-        <v>945</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -9522,17 +10031,20 @@
       <c r="G158" t="s">
         <v>767</v>
       </c>
+      <c r="I158" t="s">
+        <v>916</v>
+      </c>
       <c r="J158" t="s">
         <v>418</v>
       </c>
       <c r="K158" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L158" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M158" t="s">
-        <v>946</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -9557,17 +10069,20 @@
       <c r="G159" t="s">
         <v>767</v>
       </c>
+      <c r="I159" t="s">
+        <v>916</v>
+      </c>
       <c r="J159" t="s">
         <v>418</v>
       </c>
       <c r="K159" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L159" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M159" t="s">
-        <v>947</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -9592,17 +10107,20 @@
       <c r="G160" t="s">
         <v>767</v>
       </c>
+      <c r="I160" t="s">
+        <v>916</v>
+      </c>
       <c r="J160" t="s">
         <v>418</v>
       </c>
       <c r="K160" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L160" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M160" t="s">
-        <v>948</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -9627,17 +10145,20 @@
       <c r="G161" t="s">
         <v>767</v>
       </c>
+      <c r="I161" t="s">
+        <v>916</v>
+      </c>
       <c r="J161" t="s">
         <v>418</v>
       </c>
       <c r="K161" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L161" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M161" t="s">
-        <v>949</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -9662,17 +10183,20 @@
       <c r="G162" t="s">
         <v>767</v>
       </c>
+      <c r="I162" t="s">
+        <v>916</v>
+      </c>
       <c r="J162" t="s">
         <v>418</v>
       </c>
       <c r="K162" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L162" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M162" t="s">
-        <v>950</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -9697,17 +10221,20 @@
       <c r="G163" t="s">
         <v>767</v>
       </c>
+      <c r="I163" t="s">
+        <v>916</v>
+      </c>
       <c r="J163" t="s">
         <v>418</v>
       </c>
       <c r="K163" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L163" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M163" t="s">
-        <v>951</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -9732,17 +10259,20 @@
       <c r="G164" t="s">
         <v>767</v>
       </c>
+      <c r="I164" t="s">
+        <v>916</v>
+      </c>
       <c r="J164" t="s">
         <v>418</v>
       </c>
       <c r="K164" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L164" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M164" t="s">
-        <v>952</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -9767,17 +10297,20 @@
       <c r="G165" t="s">
         <v>767</v>
       </c>
+      <c r="I165" t="s">
+        <v>916</v>
+      </c>
       <c r="J165" t="s">
         <v>418</v>
       </c>
       <c r="K165" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L165" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M165" t="s">
-        <v>953</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -9802,17 +10335,20 @@
       <c r="G166" t="s">
         <v>767</v>
       </c>
+      <c r="I166" t="s">
+        <v>916</v>
+      </c>
       <c r="J166" t="s">
         <v>418</v>
       </c>
       <c r="K166" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L166" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M166" t="s">
-        <v>954</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -9837,17 +10373,20 @@
       <c r="G167" t="s">
         <v>767</v>
       </c>
+      <c r="I167" t="s">
+        <v>916</v>
+      </c>
       <c r="J167" t="s">
         <v>418</v>
       </c>
       <c r="K167" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L167" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M167" t="s">
-        <v>955</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -9872,17 +10411,20 @@
       <c r="G168" t="s">
         <v>767</v>
       </c>
+      <c r="I168" t="s">
+        <v>916</v>
+      </c>
       <c r="J168" t="s">
         <v>418</v>
       </c>
       <c r="K168" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L168" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M168" t="s">
-        <v>956</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -9907,17 +10449,20 @@
       <c r="G169" t="s">
         <v>767</v>
       </c>
+      <c r="I169" t="s">
+        <v>916</v>
+      </c>
       <c r="J169" t="s">
         <v>418</v>
       </c>
       <c r="K169" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L169" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M169" t="s">
-        <v>957</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -9942,17 +10487,20 @@
       <c r="G170" t="s">
         <v>767</v>
       </c>
+      <c r="I170" t="s">
+        <v>916</v>
+      </c>
       <c r="J170" t="s">
         <v>418</v>
       </c>
       <c r="K170" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L170" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M170" t="s">
-        <v>958</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -9977,17 +10525,20 @@
       <c r="G171" t="s">
         <v>767</v>
       </c>
+      <c r="I171" t="s">
+        <v>916</v>
+      </c>
       <c r="J171" t="s">
         <v>418</v>
       </c>
       <c r="K171" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L171" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M171" t="s">
-        <v>959</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -10012,17 +10563,20 @@
       <c r="G172" t="s">
         <v>767</v>
       </c>
+      <c r="I172" t="s">
+        <v>916</v>
+      </c>
       <c r="J172" t="s">
         <v>418</v>
       </c>
       <c r="K172" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L172" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M172" t="s">
-        <v>960</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -10050,17 +10604,20 @@
       <c r="H173" t="s">
         <v>782</v>
       </c>
+      <c r="I173" t="s">
+        <v>916</v>
+      </c>
       <c r="J173" t="s">
         <v>418</v>
       </c>
       <c r="K173" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L173" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M173" t="s">
-        <v>961</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -10085,17 +10642,20 @@
       <c r="G174" t="s">
         <v>767</v>
       </c>
+      <c r="I174" t="s">
+        <v>916</v>
+      </c>
       <c r="J174" t="s">
         <v>418</v>
       </c>
       <c r="K174" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L174" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M174" t="s">
-        <v>962</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -10120,17 +10680,20 @@
       <c r="G175" t="s">
         <v>767</v>
       </c>
+      <c r="I175" t="s">
+        <v>916</v>
+      </c>
       <c r="J175" t="s">
         <v>418</v>
       </c>
       <c r="K175" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L175" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M175" t="s">
-        <v>963</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -10155,17 +10718,20 @@
       <c r="G176" t="s">
         <v>767</v>
       </c>
+      <c r="I176" t="s">
+        <v>916</v>
+      </c>
       <c r="J176" t="s">
         <v>418</v>
       </c>
       <c r="K176" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L176" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M176" t="s">
-        <v>964</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -10190,17 +10756,20 @@
       <c r="G177" t="s">
         <v>767</v>
       </c>
+      <c r="I177" t="s">
+        <v>916</v>
+      </c>
       <c r="J177" t="s">
         <v>418</v>
       </c>
       <c r="K177" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L177" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M177" t="s">
-        <v>965</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -10225,17 +10794,20 @@
       <c r="G178" t="s">
         <v>767</v>
       </c>
+      <c r="I178" t="s">
+        <v>916</v>
+      </c>
       <c r="J178" t="s">
         <v>418</v>
       </c>
       <c r="K178" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L178" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M178" t="s">
-        <v>966</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -10260,17 +10832,20 @@
       <c r="G179" t="s">
         <v>767</v>
       </c>
+      <c r="I179" t="s">
+        <v>916</v>
+      </c>
       <c r="J179" t="s">
         <v>418</v>
       </c>
       <c r="K179" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L179" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M179" t="s">
-        <v>967</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -10295,17 +10870,20 @@
       <c r="G180" t="s">
         <v>767</v>
       </c>
+      <c r="I180" t="s">
+        <v>916</v>
+      </c>
       <c r="J180" t="s">
         <v>418</v>
       </c>
       <c r="K180" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L180" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M180" t="s">
-        <v>968</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -10330,17 +10908,20 @@
       <c r="G181" t="s">
         <v>767</v>
       </c>
+      <c r="I181" t="s">
+        <v>916</v>
+      </c>
       <c r="J181" t="s">
         <v>418</v>
       </c>
       <c r="K181" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L181" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M181" t="s">
-        <v>969</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -10365,17 +10946,20 @@
       <c r="G182" t="s">
         <v>767</v>
       </c>
+      <c r="I182" t="s">
+        <v>916</v>
+      </c>
       <c r="J182" t="s">
         <v>418</v>
       </c>
       <c r="K182" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L182" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M182" t="s">
-        <v>970</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -10400,17 +10984,20 @@
       <c r="G183" t="s">
         <v>767</v>
       </c>
+      <c r="I183" t="s">
+        <v>916</v>
+      </c>
       <c r="J183" t="s">
         <v>418</v>
       </c>
       <c r="K183" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L183" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M183" t="s">
-        <v>971</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -10435,17 +11022,20 @@
       <c r="G184" t="s">
         <v>767</v>
       </c>
+      <c r="I184" t="s">
+        <v>916</v>
+      </c>
       <c r="J184" t="s">
         <v>418</v>
       </c>
       <c r="K184" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L184" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M184" t="s">
-        <v>972</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -10470,17 +11060,20 @@
       <c r="G185" t="s">
         <v>767</v>
       </c>
+      <c r="I185" t="s">
+        <v>916</v>
+      </c>
       <c r="J185" t="s">
         <v>418</v>
       </c>
       <c r="K185" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L185" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M185" t="s">
-        <v>973</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -10505,17 +11098,20 @@
       <c r="G186" t="s">
         <v>767</v>
       </c>
+      <c r="I186" t="s">
+        <v>916</v>
+      </c>
       <c r="J186" t="s">
         <v>418</v>
       </c>
       <c r="K186" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L186" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M186" t="s">
-        <v>974</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -10540,17 +11136,20 @@
       <c r="G187" t="s">
         <v>767</v>
       </c>
+      <c r="I187" t="s">
+        <v>916</v>
+      </c>
       <c r="J187" t="s">
         <v>418</v>
       </c>
       <c r="K187" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L187" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M187" t="s">
-        <v>975</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -10575,17 +11174,20 @@
       <c r="G188" t="s">
         <v>767</v>
       </c>
+      <c r="I188" t="s">
+        <v>916</v>
+      </c>
       <c r="J188" t="s">
         <v>418</v>
       </c>
       <c r="K188" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L188" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M188" t="s">
-        <v>976</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -10610,17 +11212,20 @@
       <c r="G189" t="s">
         <v>767</v>
       </c>
+      <c r="I189" t="s">
+        <v>916</v>
+      </c>
       <c r="J189" t="s">
         <v>418</v>
       </c>
       <c r="K189" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L189" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M189" t="s">
-        <v>977</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -10645,17 +11250,20 @@
       <c r="G190" t="s">
         <v>767</v>
       </c>
+      <c r="I190" t="s">
+        <v>916</v>
+      </c>
       <c r="J190" t="s">
         <v>418</v>
       </c>
       <c r="K190" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L190" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M190" t="s">
-        <v>978</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -10680,17 +11288,20 @@
       <c r="G191" t="s">
         <v>767</v>
       </c>
+      <c r="I191" t="s">
+        <v>916</v>
+      </c>
       <c r="J191" t="s">
         <v>418</v>
       </c>
       <c r="K191" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L191" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M191" t="s">
-        <v>979</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -10715,17 +11326,20 @@
       <c r="G192" t="s">
         <v>767</v>
       </c>
+      <c r="I192" t="s">
+        <v>916</v>
+      </c>
       <c r="J192" t="s">
         <v>418</v>
       </c>
       <c r="K192" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L192" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M192" t="s">
-        <v>980</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -10750,17 +11364,20 @@
       <c r="G193" t="s">
         <v>767</v>
       </c>
+      <c r="I193" t="s">
+        <v>916</v>
+      </c>
       <c r="J193" t="s">
         <v>418</v>
       </c>
       <c r="K193" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L193" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M193" t="s">
-        <v>981</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -10785,17 +11402,20 @@
       <c r="G194" t="s">
         <v>767</v>
       </c>
+      <c r="I194" t="s">
+        <v>916</v>
+      </c>
       <c r="J194" t="s">
         <v>418</v>
       </c>
       <c r="K194" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L194" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M194" t="s">
-        <v>982</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -10820,17 +11440,20 @@
       <c r="G195" t="s">
         <v>767</v>
       </c>
+      <c r="I195" t="s">
+        <v>916</v>
+      </c>
       <c r="J195" t="s">
         <v>418</v>
       </c>
       <c r="K195" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L195" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M195" t="s">
-        <v>983</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -10855,17 +11478,20 @@
       <c r="G196" t="s">
         <v>767</v>
       </c>
+      <c r="I196" t="s">
+        <v>916</v>
+      </c>
       <c r="J196" t="s">
         <v>418</v>
       </c>
       <c r="K196" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L196" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M196" t="s">
-        <v>984</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -10890,17 +11516,20 @@
       <c r="G197" t="s">
         <v>767</v>
       </c>
+      <c r="I197" t="s">
+        <v>916</v>
+      </c>
       <c r="J197" t="s">
         <v>418</v>
       </c>
       <c r="K197" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L197" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M197" t="s">
-        <v>985</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -10925,17 +11554,20 @@
       <c r="G198" t="s">
         <v>767</v>
       </c>
+      <c r="I198" t="s">
+        <v>916</v>
+      </c>
       <c r="J198" t="s">
         <v>418</v>
       </c>
       <c r="K198" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L198" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M198" t="s">
-        <v>986</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -10960,17 +11592,20 @@
       <c r="G199" t="s">
         <v>767</v>
       </c>
+      <c r="I199" t="s">
+        <v>916</v>
+      </c>
       <c r="J199" t="s">
         <v>418</v>
       </c>
       <c r="K199" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L199" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M199" t="s">
-        <v>987</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -10995,17 +11630,20 @@
       <c r="G200" t="s">
         <v>767</v>
       </c>
+      <c r="I200" t="s">
+        <v>916</v>
+      </c>
       <c r="J200" t="s">
         <v>419</v>
       </c>
       <c r="K200" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L200" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M200" t="s">
-        <v>988</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -11033,17 +11671,20 @@
       <c r="H201" t="s">
         <v>783</v>
       </c>
+      <c r="I201" t="s">
+        <v>916</v>
+      </c>
       <c r="J201" t="s">
         <v>419</v>
       </c>
       <c r="K201" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L201" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M201" t="s">
-        <v>989</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -11068,17 +11709,20 @@
       <c r="G202" t="s">
         <v>767</v>
       </c>
+      <c r="I202" t="s">
+        <v>916</v>
+      </c>
       <c r="J202" t="s">
         <v>419</v>
       </c>
       <c r="K202" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L202" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M202" t="s">
-        <v>990</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -11103,17 +11747,20 @@
       <c r="G203" t="s">
         <v>767</v>
       </c>
+      <c r="I203" t="s">
+        <v>916</v>
+      </c>
       <c r="J203" t="s">
         <v>419</v>
       </c>
       <c r="K203" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L203" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M203" t="s">
-        <v>991</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -11138,17 +11785,20 @@
       <c r="G204" t="s">
         <v>767</v>
       </c>
+      <c r="I204" t="s">
+        <v>916</v>
+      </c>
       <c r="J204" t="s">
         <v>419</v>
       </c>
       <c r="K204" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L204" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M204" t="s">
-        <v>992</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -11173,17 +11823,20 @@
       <c r="G205" t="s">
         <v>767</v>
       </c>
+      <c r="I205" t="s">
+        <v>916</v>
+      </c>
       <c r="J205" t="s">
         <v>419</v>
       </c>
       <c r="K205" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L205" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M205" t="s">
-        <v>993</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -11208,17 +11861,20 @@
       <c r="G206" t="s">
         <v>767</v>
       </c>
+      <c r="I206" t="s">
+        <v>916</v>
+      </c>
       <c r="J206" t="s">
         <v>419</v>
       </c>
       <c r="K206" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L206" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M206" t="s">
-        <v>994</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -11243,17 +11899,20 @@
       <c r="G207" t="s">
         <v>767</v>
       </c>
+      <c r="I207" t="s">
+        <v>916</v>
+      </c>
       <c r="J207" t="s">
         <v>419</v>
       </c>
       <c r="K207" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L207" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M207" t="s">
-        <v>995</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -11278,17 +11937,20 @@
       <c r="G208" t="s">
         <v>767</v>
       </c>
+      <c r="I208" t="s">
+        <v>916</v>
+      </c>
       <c r="J208" t="s">
         <v>419</v>
       </c>
       <c r="K208" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L208" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M208" t="s">
-        <v>996</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -11313,17 +11975,20 @@
       <c r="G209" t="s">
         <v>767</v>
       </c>
+      <c r="I209" t="s">
+        <v>916</v>
+      </c>
       <c r="J209" t="s">
         <v>419</v>
       </c>
       <c r="K209" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L209" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M209" t="s">
-        <v>997</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -11348,17 +12013,20 @@
       <c r="G210" t="s">
         <v>767</v>
       </c>
+      <c r="I210" t="s">
+        <v>916</v>
+      </c>
       <c r="J210" t="s">
         <v>419</v>
       </c>
       <c r="K210" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L210" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M210" t="s">
-        <v>998</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -11383,17 +12051,20 @@
       <c r="G211" t="s">
         <v>767</v>
       </c>
+      <c r="I211" t="s">
+        <v>916</v>
+      </c>
       <c r="J211" t="s">
         <v>419</v>
       </c>
       <c r="K211" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L211" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M211" t="s">
-        <v>999</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -11418,17 +12089,20 @@
       <c r="G212" t="s">
         <v>767</v>
       </c>
+      <c r="I212" t="s">
+        <v>916</v>
+      </c>
       <c r="J212" t="s">
         <v>419</v>
       </c>
       <c r="K212" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L212" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M212" t="s">
-        <v>1000</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -11456,17 +12130,20 @@
       <c r="H213" t="s">
         <v>784</v>
       </c>
+      <c r="I213" t="s">
+        <v>916</v>
+      </c>
       <c r="J213" t="s">
         <v>419</v>
       </c>
       <c r="K213" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L213" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M213" t="s">
-        <v>1001</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -11491,17 +12168,20 @@
       <c r="G214" t="s">
         <v>767</v>
       </c>
+      <c r="I214" t="s">
+        <v>916</v>
+      </c>
       <c r="J214" t="s">
         <v>419</v>
       </c>
       <c r="K214" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L214" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M214" t="s">
-        <v>1002</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -11526,17 +12206,20 @@
       <c r="G215" t="s">
         <v>767</v>
       </c>
+      <c r="I215" t="s">
+        <v>916</v>
+      </c>
       <c r="J215" t="s">
         <v>419</v>
       </c>
       <c r="K215" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L215" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M215" t="s">
-        <v>1003</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -11561,17 +12244,20 @@
       <c r="G216" t="s">
         <v>767</v>
       </c>
+      <c r="I216" t="s">
+        <v>916</v>
+      </c>
       <c r="J216" t="s">
         <v>419</v>
       </c>
       <c r="K216" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L216" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M216" t="s">
-        <v>1004</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -11596,17 +12282,20 @@
       <c r="G217" t="s">
         <v>767</v>
       </c>
+      <c r="I217" t="s">
+        <v>916</v>
+      </c>
       <c r="J217" t="s">
         <v>419</v>
       </c>
       <c r="K217" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L217" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M217" t="s">
-        <v>1005</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -11634,17 +12323,20 @@
       <c r="H218" t="s">
         <v>785</v>
       </c>
+      <c r="I218" t="s">
+        <v>916</v>
+      </c>
       <c r="J218" t="s">
         <v>419</v>
       </c>
       <c r="K218" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L218" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M218" t="s">
-        <v>1006</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -11669,17 +12361,20 @@
       <c r="G219" t="s">
         <v>767</v>
       </c>
+      <c r="I219" t="s">
+        <v>916</v>
+      </c>
       <c r="J219" t="s">
         <v>419</v>
       </c>
       <c r="K219" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L219" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M219" t="s">
-        <v>1007</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -11704,17 +12399,20 @@
       <c r="G220" t="s">
         <v>767</v>
       </c>
+      <c r="I220" t="s">
+        <v>916</v>
+      </c>
       <c r="J220" t="s">
         <v>419</v>
       </c>
       <c r="K220" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L220" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M220" t="s">
-        <v>1008</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -11739,17 +12437,20 @@
       <c r="G221" t="s">
         <v>767</v>
       </c>
+      <c r="I221" t="s">
+        <v>916</v>
+      </c>
       <c r="J221" t="s">
         <v>419</v>
       </c>
       <c r="K221" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L221" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M221" t="s">
-        <v>1009</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -11774,17 +12475,20 @@
       <c r="G222" t="s">
         <v>767</v>
       </c>
+      <c r="I222" t="s">
+        <v>916</v>
+      </c>
       <c r="J222" t="s">
         <v>419</v>
       </c>
       <c r="K222" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L222" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M222" t="s">
-        <v>1010</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -11809,17 +12513,20 @@
       <c r="G223" t="s">
         <v>767</v>
       </c>
+      <c r="I223" t="s">
+        <v>916</v>
+      </c>
       <c r="J223" t="s">
         <v>419</v>
       </c>
       <c r="K223" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L223" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M223" t="s">
-        <v>1011</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -11844,17 +12551,20 @@
       <c r="G224" t="s">
         <v>767</v>
       </c>
+      <c r="I224" t="s">
+        <v>916</v>
+      </c>
       <c r="J224" t="s">
         <v>419</v>
       </c>
       <c r="K224" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L224" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M224" t="s">
-        <v>1012</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -11879,17 +12589,20 @@
       <c r="G225" t="s">
         <v>767</v>
       </c>
+      <c r="I225" t="s">
+        <v>916</v>
+      </c>
       <c r="J225" t="s">
         <v>419</v>
       </c>
       <c r="K225" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L225" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M225" t="s">
-        <v>1013</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -11914,17 +12627,20 @@
       <c r="G226" t="s">
         <v>767</v>
       </c>
+      <c r="I226" t="s">
+        <v>916</v>
+      </c>
       <c r="J226" t="s">
         <v>419</v>
       </c>
       <c r="K226" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L226" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M226" t="s">
-        <v>1014</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -11949,17 +12665,20 @@
       <c r="G227" t="s">
         <v>767</v>
       </c>
+      <c r="I227" t="s">
+        <v>916</v>
+      </c>
       <c r="J227" t="s">
         <v>419</v>
       </c>
       <c r="K227" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L227" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M227" t="s">
-        <v>1015</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -11984,17 +12703,20 @@
       <c r="G228" t="s">
         <v>767</v>
       </c>
+      <c r="I228" t="s">
+        <v>916</v>
+      </c>
       <c r="J228" t="s">
         <v>419</v>
       </c>
       <c r="K228" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L228" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M228" t="s">
-        <v>1016</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -12019,17 +12741,20 @@
       <c r="G229" t="s">
         <v>767</v>
       </c>
+      <c r="I229" t="s">
+        <v>916</v>
+      </c>
       <c r="J229" t="s">
         <v>419</v>
       </c>
       <c r="K229" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L229" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M229" t="s">
-        <v>1017</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -12057,17 +12782,20 @@
       <c r="H230" t="s">
         <v>786</v>
       </c>
+      <c r="I230" t="s">
+        <v>916</v>
+      </c>
       <c r="J230" t="s">
         <v>419</v>
       </c>
       <c r="K230" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L230" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M230" t="s">
-        <v>1018</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -12092,17 +12820,20 @@
       <c r="G231" t="s">
         <v>767</v>
       </c>
+      <c r="I231" t="s">
+        <v>916</v>
+      </c>
       <c r="J231" t="s">
         <v>419</v>
       </c>
       <c r="K231" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L231" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M231" t="s">
-        <v>1019</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -12127,17 +12858,20 @@
       <c r="G232" t="s">
         <v>767</v>
       </c>
+      <c r="I232" t="s">
+        <v>916</v>
+      </c>
       <c r="J232" t="s">
         <v>419</v>
       </c>
       <c r="K232" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L232" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M232" t="s">
-        <v>1020</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -12162,17 +12896,20 @@
       <c r="G233" t="s">
         <v>767</v>
       </c>
+      <c r="I233" t="s">
+        <v>916</v>
+      </c>
       <c r="J233" t="s">
         <v>419</v>
       </c>
       <c r="K233" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L233" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M233" t="s">
-        <v>1021</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -12197,17 +12934,20 @@
       <c r="G234" t="s">
         <v>767</v>
       </c>
+      <c r="I234" t="s">
+        <v>916</v>
+      </c>
       <c r="J234" t="s">
         <v>419</v>
       </c>
       <c r="K234" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L234" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M234" t="s">
-        <v>1022</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -12232,17 +12972,20 @@
       <c r="G235" t="s">
         <v>767</v>
       </c>
+      <c r="I235" t="s">
+        <v>916</v>
+      </c>
       <c r="J235" t="s">
         <v>419</v>
       </c>
       <c r="K235" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L235" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M235" t="s">
-        <v>1023</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -12267,17 +13010,20 @@
       <c r="G236" t="s">
         <v>767</v>
       </c>
+      <c r="I236" t="s">
+        <v>916</v>
+      </c>
       <c r="J236" t="s">
         <v>419</v>
       </c>
       <c r="K236" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L236" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M236" t="s">
-        <v>1024</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -12302,17 +13048,20 @@
       <c r="G237" t="s">
         <v>767</v>
       </c>
+      <c r="I237" t="s">
+        <v>916</v>
+      </c>
       <c r="J237" t="s">
         <v>419</v>
       </c>
       <c r="K237" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L237" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M237" t="s">
-        <v>1025</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -12337,17 +13086,20 @@
       <c r="G238" t="s">
         <v>767</v>
       </c>
+      <c r="I238" t="s">
+        <v>916</v>
+      </c>
       <c r="J238" t="s">
         <v>419</v>
       </c>
       <c r="K238" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L238" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M238" t="s">
-        <v>1026</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -12372,17 +13124,20 @@
       <c r="G239" t="s">
         <v>767</v>
       </c>
+      <c r="I239" t="s">
+        <v>916</v>
+      </c>
       <c r="J239" t="s">
         <v>419</v>
       </c>
       <c r="K239" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L239" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M239" t="s">
-        <v>1027</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -12407,17 +13162,20 @@
       <c r="G240" t="s">
         <v>767</v>
       </c>
+      <c r="I240" t="s">
+        <v>916</v>
+      </c>
       <c r="J240" t="s">
         <v>419</v>
       </c>
       <c r="K240" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L240" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M240" t="s">
-        <v>1028</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -12442,17 +13200,20 @@
       <c r="G241" t="s">
         <v>767</v>
       </c>
+      <c r="I241" t="s">
+        <v>916</v>
+      </c>
       <c r="J241" t="s">
         <v>419</v>
       </c>
       <c r="K241" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L241" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M241" t="s">
-        <v>1029</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -12477,17 +13238,20 @@
       <c r="G242" t="s">
         <v>767</v>
       </c>
+      <c r="I242" t="s">
+        <v>916</v>
+      </c>
       <c r="J242" t="s">
         <v>419</v>
       </c>
       <c r="K242" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L242" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M242" t="s">
-        <v>1030</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -12512,17 +13276,20 @@
       <c r="G243" t="s">
         <v>767</v>
       </c>
+      <c r="I243" t="s">
+        <v>916</v>
+      </c>
       <c r="J243" t="s">
         <v>419</v>
       </c>
       <c r="K243" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L243" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M243" t="s">
-        <v>1031</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -12547,17 +13314,20 @@
       <c r="G244" t="s">
         <v>767</v>
       </c>
+      <c r="I244" t="s">
+        <v>916</v>
+      </c>
       <c r="J244" t="s">
         <v>419</v>
       </c>
       <c r="K244" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L244" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M244" t="s">
-        <v>1032</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -12582,17 +13352,20 @@
       <c r="G245" t="s">
         <v>767</v>
       </c>
+      <c r="I245" t="s">
+        <v>916</v>
+      </c>
       <c r="J245" t="s">
         <v>419</v>
       </c>
       <c r="K245" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L245" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M245" t="s">
-        <v>1033</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -12617,17 +13390,20 @@
       <c r="G246" t="s">
         <v>767</v>
       </c>
+      <c r="I246" t="s">
+        <v>916</v>
+      </c>
       <c r="J246" t="s">
         <v>419</v>
       </c>
       <c r="K246" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L246" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M246" t="s">
-        <v>1034</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -12652,17 +13428,20 @@
       <c r="G247" t="s">
         <v>767</v>
       </c>
+      <c r="I247" t="s">
+        <v>916</v>
+      </c>
       <c r="J247" t="s">
         <v>419</v>
       </c>
       <c r="K247" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L247" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M247" t="s">
-        <v>1035</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -12687,17 +13466,20 @@
       <c r="G248" t="s">
         <v>767</v>
       </c>
+      <c r="I248" t="s">
+        <v>916</v>
+      </c>
       <c r="J248" t="s">
         <v>419</v>
       </c>
       <c r="K248" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L248" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M248" t="s">
-        <v>1036</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -12722,17 +13504,20 @@
       <c r="G249" t="s">
         <v>767</v>
       </c>
+      <c r="I249" t="s">
+        <v>916</v>
+      </c>
       <c r="J249" t="s">
         <v>419</v>
       </c>
       <c r="K249" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L249" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M249" t="s">
-        <v>1037</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -12757,17 +13542,20 @@
       <c r="G250" t="s">
         <v>767</v>
       </c>
+      <c r="I250" t="s">
+        <v>916</v>
+      </c>
       <c r="J250" t="s">
         <v>419</v>
       </c>
       <c r="K250" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L250" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M250" t="s">
-        <v>1038</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -12792,17 +13580,20 @@
       <c r="G251" t="s">
         <v>767</v>
       </c>
+      <c r="I251" t="s">
+        <v>916</v>
+      </c>
       <c r="J251" t="s">
         <v>419</v>
       </c>
       <c r="K251" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L251" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M251" t="s">
-        <v>1039</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -12827,20 +13618,20 @@
       <c r="G252" t="s">
         <v>768</v>
       </c>
-      <c r="I252" s="2">
-        <v>3.549131944444444</v>
+      <c r="I252" t="s">
+        <v>917</v>
       </c>
       <c r="J252" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K252" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L252" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M252" t="s">
-        <v>1040</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -12865,20 +13656,20 @@
       <c r="G253" t="s">
         <v>768</v>
       </c>
-      <c r="I253" s="2">
-        <v>3.594074074074074</v>
+      <c r="I253" t="s">
+        <v>918</v>
       </c>
       <c r="J253" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K253" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L253" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M253" t="s">
-        <v>1041</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -12903,20 +13694,20 @@
       <c r="G254" t="s">
         <v>768</v>
       </c>
-      <c r="I254" s="2">
-        <v>3.712141203703704</v>
+      <c r="I254" t="s">
+        <v>919</v>
       </c>
       <c r="J254" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K254" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L254" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M254" t="s">
-        <v>1042</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -12941,20 +13732,20 @@
       <c r="G255" t="s">
         <v>768</v>
       </c>
-      <c r="I255" s="2">
-        <v>3.873391203703703</v>
+      <c r="I255" t="s">
+        <v>920</v>
       </c>
       <c r="J255" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K255" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L255" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M255" t="s">
-        <v>1043</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -12979,20 +13770,20 @@
       <c r="G256" t="s">
         <v>768</v>
       </c>
-      <c r="I256" s="2">
-        <v>3.920393518518519</v>
+      <c r="I256" t="s">
+        <v>921</v>
       </c>
       <c r="J256" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K256" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L256" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M256" t="s">
-        <v>1044</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -13017,20 +13808,20 @@
       <c r="G257" t="s">
         <v>768</v>
       </c>
-      <c r="I257" s="2">
-        <v>4.195532407407407</v>
+      <c r="I257" t="s">
+        <v>922</v>
       </c>
       <c r="J257" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K257" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L257" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M257" t="s">
-        <v>1045</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -13055,20 +13846,20 @@
       <c r="G258" t="s">
         <v>768</v>
       </c>
-      <c r="I258" s="2">
-        <v>4.462280092592593</v>
+      <c r="I258" t="s">
+        <v>923</v>
       </c>
       <c r="J258" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K258" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L258" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M258" t="s">
-        <v>1046</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -13093,20 +13884,20 @@
       <c r="G259" t="s">
         <v>768</v>
       </c>
-      <c r="I259" s="2">
-        <v>4.524120370370371</v>
+      <c r="I259" t="s">
+        <v>924</v>
       </c>
       <c r="J259" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K259" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L259" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M259" t="s">
-        <v>1047</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -13131,20 +13922,20 @@
       <c r="G260" t="s">
         <v>768</v>
       </c>
-      <c r="I260" s="2">
-        <v>4.658657407407407</v>
+      <c r="I260" t="s">
+        <v>925</v>
       </c>
       <c r="J260" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K260" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L260" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M260" t="s">
-        <v>1048</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -13169,20 +13960,20 @@
       <c r="G261" t="s">
         <v>768</v>
       </c>
-      <c r="I261" s="2">
-        <v>4.80099537037037</v>
+      <c r="I261" t="s">
+        <v>926</v>
       </c>
       <c r="J261" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K261" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L261" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M261" t="s">
-        <v>1049</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -13207,20 +13998,20 @@
       <c r="G262" t="s">
         <v>768</v>
       </c>
-      <c r="I262" s="2">
-        <v>4.863703703703703</v>
+      <c r="I262" t="s">
+        <v>927</v>
       </c>
       <c r="J262" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K262" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L262" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M262" t="s">
-        <v>1050</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -13245,20 +14036,20 @@
       <c r="G263" t="s">
         <v>768</v>
       </c>
-      <c r="I263" s="2">
-        <v>5.318923611111111</v>
+      <c r="I263" t="s">
+        <v>928</v>
       </c>
       <c r="J263" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K263" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L263" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M263" t="s">
-        <v>1051</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -13283,20 +14074,20 @@
       <c r="G264" t="s">
         <v>768</v>
       </c>
-      <c r="I264" s="2">
-        <v>5.454131944444445</v>
+      <c r="I264" t="s">
+        <v>929</v>
       </c>
       <c r="J264" t="s">
-        <v>787</v>
+        <v>930</v>
       </c>
       <c r="K264" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L264" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M264" t="s">
-        <v>1052</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -13321,17 +14112,20 @@
       <c r="G265" t="s">
         <v>768</v>
       </c>
+      <c r="I265" t="s">
+        <v>916</v>
+      </c>
       <c r="J265" t="s">
         <v>418</v>
       </c>
       <c r="K265" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L265" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M265" t="s">
-        <v>1053</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -13356,17 +14150,20 @@
       <c r="G266" t="s">
         <v>768</v>
       </c>
+      <c r="I266" t="s">
+        <v>916</v>
+      </c>
       <c r="J266" t="s">
         <v>418</v>
       </c>
       <c r="K266" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L266" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M266" t="s">
-        <v>1054</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -13391,17 +14188,20 @@
       <c r="G267" t="s">
         <v>768</v>
       </c>
+      <c r="I267" t="s">
+        <v>916</v>
+      </c>
       <c r="J267" t="s">
         <v>418</v>
       </c>
       <c r="K267" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L267" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M267" t="s">
-        <v>1055</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -13426,17 +14226,20 @@
       <c r="G268" t="s">
         <v>768</v>
       </c>
+      <c r="I268" t="s">
+        <v>916</v>
+      </c>
       <c r="J268" t="s">
         <v>418</v>
       </c>
       <c r="K268" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L268" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M268" t="s">
-        <v>1056</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -13461,17 +14264,20 @@
       <c r="G269" t="s">
         <v>768</v>
       </c>
+      <c r="I269" t="s">
+        <v>916</v>
+      </c>
       <c r="J269" t="s">
         <v>418</v>
       </c>
       <c r="K269" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L269" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M269" t="s">
-        <v>1057</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -13496,17 +14302,20 @@
       <c r="G270" t="s">
         <v>768</v>
       </c>
+      <c r="I270" t="s">
+        <v>916</v>
+      </c>
       <c r="J270" t="s">
         <v>418</v>
       </c>
       <c r="K270" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L270" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M270" t="s">
-        <v>1058</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -13531,17 +14340,20 @@
       <c r="G271" t="s">
         <v>768</v>
       </c>
+      <c r="I271" t="s">
+        <v>916</v>
+      </c>
       <c r="J271" t="s">
         <v>418</v>
       </c>
       <c r="K271" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L271" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M271" t="s">
-        <v>1059</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -13566,17 +14378,20 @@
       <c r="G272" t="s">
         <v>768</v>
       </c>
+      <c r="I272" t="s">
+        <v>916</v>
+      </c>
       <c r="J272" t="s">
         <v>419</v>
       </c>
       <c r="K272" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L272" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M272" t="s">
-        <v>1060</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -13601,17 +14416,20 @@
       <c r="G273" t="s">
         <v>768</v>
       </c>
+      <c r="I273" t="s">
+        <v>916</v>
+      </c>
       <c r="J273" t="s">
         <v>419</v>
       </c>
       <c r="K273" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L273" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M273" t="s">
-        <v>1061</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="274" spans="1:13">
@@ -13636,17 +14454,20 @@
       <c r="G274" t="s">
         <v>768</v>
       </c>
+      <c r="I274" t="s">
+        <v>916</v>
+      </c>
       <c r="J274" t="s">
         <v>419</v>
       </c>
       <c r="K274" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L274" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M274" t="s">
-        <v>1062</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -13671,17 +14492,20 @@
       <c r="G275" t="s">
         <v>768</v>
       </c>
+      <c r="I275" t="s">
+        <v>916</v>
+      </c>
       <c r="J275" t="s">
         <v>419</v>
       </c>
       <c r="K275" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L275" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M275" t="s">
-        <v>1063</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="276" spans="1:13">
@@ -13706,17 +14530,20 @@
       <c r="G276" t="s">
         <v>768</v>
       </c>
+      <c r="I276" t="s">
+        <v>916</v>
+      </c>
       <c r="J276" t="s">
         <v>419</v>
       </c>
       <c r="K276" t="s">
-        <v>788</v>
+        <v>931</v>
       </c>
       <c r="L276" t="s">
-        <v>789</v>
+        <v>932</v>
       </c>
       <c r="M276" t="s">
-        <v>1064</v>
+        <v>1207</v>
       </c>
     </row>
   </sheetData>
